--- a/src/main/resources/static/examples/area.xlsx
+++ b/src/main/resources/static/examples/area.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2884,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">

--- a/src/main/resources/static/examples/area.xlsx
+++ b/src/main/resources/static/examples/area.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27960C48-CA1E-4C7A-9023-F3C0CB2F1B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$436</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -132,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +150,22 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -172,8 +192,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,16 +481,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -478,29 +504,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -511,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -522,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -533,40 +553,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -577,18 +588,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -596,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -607,10 +615,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -621,29 +629,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -654,18 +656,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -676,18 +675,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -698,29 +694,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -731,29 +721,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -761,21 +745,18 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -786,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -797,18 +778,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -816,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -827,10 +805,10 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -841,40 +819,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -885,18 +854,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -907,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -918,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -929,29 +895,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -962,18 +922,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -984,18 +941,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1003,32 +957,26 @@
         <v>19</v>
       </c>
       <c r="C49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -1036,32 +984,26 @@
         <v>22</v>
       </c>
       <c r="C52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -1069,21 +1011,18 @@
         <v>25</v>
       </c>
       <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -1215,18 +1154,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1234,10 +1173,10 @@
         <v>13</v>
       </c>
       <c r="C70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -1278,10 +1217,10 @@
         <v>17</v>
       </c>
       <c r="C74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -1289,10 +1228,10 @@
         <v>18</v>
       </c>
       <c r="C75">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -1300,10 +1239,10 @@
         <v>19</v>
       </c>
       <c r="C76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -1322,10 +1261,10 @@
         <v>21</v>
       </c>
       <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -1333,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -1344,10 +1283,10 @@
         <v>23</v>
       </c>
       <c r="C80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -1355,21 +1294,21 @@
         <v>24</v>
       </c>
       <c r="C81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C82" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -1377,21 +1316,21 @@
         <v>26</v>
       </c>
       <c r="C83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -1399,10 +1338,10 @@
         <v>28</v>
       </c>
       <c r="C85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -1424,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -1454,10 +1393,10 @@
         <v>7</v>
       </c>
       <c r="C90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -1468,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -1487,10 +1426,10 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -1509,10 +1448,10 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -1531,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -1542,10 +1481,10 @@
         <v>15</v>
       </c>
       <c r="C98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -1553,10 +1492,10 @@
         <v>16</v>
       </c>
       <c r="C99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -1578,18 +1517,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C102" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -1597,10 +1536,10 @@
         <v>20</v>
       </c>
       <c r="C103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -1611,18 +1550,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C105" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -1630,10 +1569,10 @@
         <v>23</v>
       </c>
       <c r="C106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -1644,18 +1583,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C108" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -1685,10 +1624,10 @@
         <v>28</v>
       </c>
       <c r="C111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -1729,10 +1668,10 @@
         <v>7</v>
       </c>
       <c r="C115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -1765,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -1784,10 +1723,10 @@
         <v>12</v>
       </c>
       <c r="C120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -1795,10 +1734,10 @@
         <v>13</v>
       </c>
       <c r="C121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -1806,10 +1745,10 @@
         <v>14</v>
       </c>
       <c r="C122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -1817,10 +1756,10 @@
         <v>15</v>
       </c>
       <c r="C123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -1828,21 +1767,21 @@
         <v>16</v>
       </c>
       <c r="C124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C125" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -1850,10 +1789,10 @@
         <v>18</v>
       </c>
       <c r="C126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -1861,10 +1800,10 @@
         <v>19</v>
       </c>
       <c r="C127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -1872,10 +1811,10 @@
         <v>20</v>
       </c>
       <c r="C128">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -1905,10 +1844,10 @@
         <v>23</v>
       </c>
       <c r="C131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -1916,10 +1855,10 @@
         <v>24</v>
       </c>
       <c r="C132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -1927,10 +1866,10 @@
         <v>25</v>
       </c>
       <c r="C133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -1938,10 +1877,10 @@
         <v>26</v>
       </c>
       <c r="C134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -1960,43 +1899,34 @@
         <v>28</v>
       </c>
       <c r="C136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
-      <c r="C138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
-      <c r="C139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -2007,18 +1937,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
-      <c r="C141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2029,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2037,10 +1964,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2051,29 +1978,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
       </c>
-      <c r="C145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
       </c>
-      <c r="C146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2081,21 +2002,18 @@
         <v>15</v>
       </c>
       <c r="C147">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
-      <c r="C148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2106,18 +2024,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
       </c>
-      <c r="C150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2125,32 +2040,26 @@
         <v>19</v>
       </c>
       <c r="C151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
       </c>
-      <c r="C152">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153" t="s">
         <v>21</v>
       </c>
-      <c r="C153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2158,32 +2067,26 @@
         <v>22</v>
       </c>
       <c r="C154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
       <c r="B155" t="s">
         <v>23</v>
       </c>
-      <c r="C155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
       <c r="B156" t="s">
         <v>24</v>
       </c>
-      <c r="C156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -2191,21 +2094,18 @@
         <v>25</v>
       </c>
       <c r="C157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
       <c r="B158" t="s">
         <v>26</v>
       </c>
-      <c r="C158">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -2227,29 +2127,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
-      <c r="C162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -2260,18 +2154,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
       <c r="B164" t="s">
         <v>9</v>
       </c>
-      <c r="C164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -2301,32 +2192,26 @@
         <v>12</v>
       </c>
       <c r="C167">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
       </c>
-      <c r="C168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
       <c r="B169" t="s">
         <v>14</v>
       </c>
-      <c r="C169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -2337,18 +2222,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
-      <c r="C171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -2359,18 +2241,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
       <c r="B173" t="s">
         <v>18</v>
       </c>
-      <c r="C173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -2381,29 +2260,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
       </c>
-      <c r="C175">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
       <c r="B176" t="s">
         <v>21</v>
       </c>
-      <c r="C176">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -2411,32 +2284,26 @@
         <v>22</v>
       </c>
       <c r="C177">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
       <c r="B178" t="s">
         <v>23</v>
       </c>
-      <c r="C178">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
       <c r="B179" t="s">
         <v>24</v>
       </c>
-      <c r="C179">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -2447,18 +2314,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>6</v>
       </c>
       <c r="B181" t="s">
         <v>26</v>
       </c>
-      <c r="C181">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -2466,10 +2330,10 @@
         <v>27</v>
       </c>
       <c r="C182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -2480,18 +2344,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -2502,18 +2363,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
       <c r="B186" t="s">
         <v>9</v>
       </c>
-      <c r="C186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -2521,10 +2379,10 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -2532,10 +2390,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -2546,29 +2404,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
       <c r="B190" t="s">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
       <c r="B191" t="s">
         <v>14</v>
       </c>
-      <c r="C191">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -2579,18 +2431,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
-      <c r="C193">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -2598,21 +2447,18 @@
         <v>17</v>
       </c>
       <c r="C194">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
       </c>
-      <c r="C195">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -2620,32 +2466,26 @@
         <v>19</v>
       </c>
       <c r="C196">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
       <c r="B197" t="s">
         <v>20</v>
       </c>
-      <c r="C197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
       <c r="B198" t="s">
         <v>21</v>
       </c>
-      <c r="C198">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -2653,32 +2493,26 @@
         <v>22</v>
       </c>
       <c r="C199">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
       <c r="B200" t="s">
         <v>23</v>
       </c>
-      <c r="C200">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
       <c r="B201" t="s">
         <v>24</v>
       </c>
-      <c r="C201">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -2689,18 +2523,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
       <c r="B203" t="s">
         <v>26</v>
       </c>
-      <c r="C203">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -2733,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -2744,18 +2575,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C208">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C208" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -2763,21 +2594,21 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C210">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C210" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -2799,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -2821,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -2843,18 +2674,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C217">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C217" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -2873,10 +2704,10 @@
         <v>21</v>
       </c>
       <c r="C219">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -2884,10 +2715,10 @@
         <v>22</v>
       </c>
       <c r="C220">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -2895,10 +2726,10 @@
         <v>23</v>
       </c>
       <c r="C221">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -2906,21 +2737,21 @@
         <v>24</v>
       </c>
       <c r="C222">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C223">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C223" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -2931,18 +2762,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C225">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C225" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -2953,18 +2784,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>9</v>
       </c>
       <c r="B227" t="s">
         <v>9</v>
       </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -2972,10 +2800,10 @@
         <v>10</v>
       </c>
       <c r="C228">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -2986,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -2994,32 +2822,26 @@
         <v>12</v>
       </c>
       <c r="C230">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>9</v>
       </c>
       <c r="B231" t="s">
         <v>13</v>
       </c>
-      <c r="C231">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
       <c r="B232" t="s">
         <v>14</v>
       </c>
-      <c r="C232">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -3027,21 +2849,18 @@
         <v>15</v>
       </c>
       <c r="C233">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>9</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
       </c>
-      <c r="C234">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -3049,21 +2868,18 @@
         <v>17</v>
       </c>
       <c r="C235">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>9</v>
       </c>
       <c r="B236" t="s">
         <v>18</v>
       </c>
-      <c r="C236">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -3071,32 +2887,26 @@
         <v>19</v>
       </c>
       <c r="C237">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>9</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
       </c>
-      <c r="C238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>9</v>
       </c>
       <c r="B239" t="s">
         <v>21</v>
       </c>
-      <c r="C239">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -3104,32 +2914,26 @@
         <v>22</v>
       </c>
       <c r="C240">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>9</v>
       </c>
       <c r="B241" t="s">
         <v>23</v>
       </c>
-      <c r="C241">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>9</v>
       </c>
       <c r="B242" t="s">
         <v>24</v>
       </c>
-      <c r="C242">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -3137,21 +2941,18 @@
         <v>25</v>
       </c>
       <c r="C243">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>9</v>
       </c>
       <c r="B244" t="s">
         <v>26</v>
       </c>
-      <c r="C244">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -3159,10 +2960,10 @@
         <v>27</v>
       </c>
       <c r="C245">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -3184,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -3195,7 +2996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -3217,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -3239,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -3247,10 +3048,10 @@
         <v>16</v>
       </c>
       <c r="C253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -3272,7 +3073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -3283,7 +3084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>10</v>
       </c>
@@ -3294,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -3305,7 +3106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -3313,10 +3114,10 @@
         <v>22</v>
       </c>
       <c r="C259">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -3327,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -3338,18 +3139,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C262">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C262" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -3360,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -3368,21 +3169,21 @@
         <v>27</v>
       </c>
       <c r="C264">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C265">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C265" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -3393,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -3415,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -3426,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -3437,7 +3238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -3448,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -3470,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -3481,7 +3282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -3514,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -3525,7 +3326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -3536,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -3558,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -3566,10 +3367,10 @@
         <v>27</v>
       </c>
       <c r="C282">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -3580,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -3591,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -3602,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -3613,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -3624,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -3635,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -3646,7 +3447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -3657,18 +3458,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C291">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C291" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -3679,7 +3480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -3687,10 +3488,10 @@
         <v>21</v>
       </c>
       <c r="C293">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -3698,10 +3499,10 @@
         <v>22</v>
       </c>
       <c r="C294">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -3709,10 +3510,10 @@
         <v>23</v>
       </c>
       <c r="C295">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -3720,10 +3521,10 @@
         <v>24</v>
       </c>
       <c r="C296">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -3731,10 +3532,10 @@
         <v>25</v>
       </c>
       <c r="C297">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -3742,10 +3543,10 @@
         <v>26</v>
       </c>
       <c r="C298">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -3753,10 +3554,10 @@
         <v>27</v>
       </c>
       <c r="C299">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -3767,29 +3568,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>13</v>
       </c>
       <c r="B301" t="s">
         <v>13</v>
       </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>13</v>
       </c>
       <c r="B302" t="s">
         <v>14</v>
       </c>
-      <c r="C302">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -3800,18 +3595,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>13</v>
       </c>
       <c r="B304" t="s">
         <v>16</v>
       </c>
-      <c r="C304">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -3822,18 +3614,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>13</v>
       </c>
       <c r="B306" t="s">
         <v>18</v>
       </c>
-      <c r="C306">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -3844,29 +3633,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>13</v>
       </c>
       <c r="B308" t="s">
         <v>20</v>
       </c>
-      <c r="C308">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>13</v>
       </c>
       <c r="B309" t="s">
         <v>21</v>
       </c>
-      <c r="C309">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -3877,29 +3660,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>13</v>
       </c>
       <c r="B311" t="s">
         <v>23</v>
       </c>
-      <c r="C311">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>13</v>
       </c>
       <c r="B312" t="s">
         <v>24</v>
       </c>
-      <c r="C312">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>13</v>
       </c>
@@ -3910,18 +3687,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>13</v>
       </c>
       <c r="B314" t="s">
         <v>26</v>
       </c>
-      <c r="C314">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -3929,10 +3703,10 @@
         <v>27</v>
       </c>
       <c r="C315">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>13</v>
       </c>
@@ -3943,18 +3717,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>14</v>
       </c>
       <c r="B317" t="s">
         <v>14</v>
       </c>
-      <c r="C317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -3965,18 +3736,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>14</v>
       </c>
       <c r="B319" t="s">
         <v>16</v>
       </c>
-      <c r="C319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -3987,18 +3755,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>14</v>
       </c>
       <c r="B321" t="s">
         <v>18</v>
       </c>
-      <c r="C321">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -4006,32 +3771,26 @@
         <v>19</v>
       </c>
       <c r="C322">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>14</v>
       </c>
       <c r="B323" t="s">
         <v>20</v>
       </c>
-      <c r="C323">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>14</v>
       </c>
       <c r="B324" t="s">
         <v>21</v>
       </c>
-      <c r="C324">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -4039,32 +3798,26 @@
         <v>22</v>
       </c>
       <c r="C325">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>14</v>
       </c>
       <c r="B326" t="s">
         <v>23</v>
       </c>
-      <c r="C326">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>14</v>
       </c>
       <c r="B327" t="s">
         <v>24</v>
       </c>
-      <c r="C327">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -4072,21 +3825,18 @@
         <v>25</v>
       </c>
       <c r="C328">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>14</v>
       </c>
       <c r="B329" t="s">
         <v>26</v>
       </c>
-      <c r="C329">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -4094,10 +3844,10 @@
         <v>27</v>
       </c>
       <c r="C330">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -4105,10 +3855,10 @@
         <v>28</v>
       </c>
       <c r="C331">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -4119,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -4130,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -4141,7 +3891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -4152,7 +3902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -4163,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -4174,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -4182,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="C338">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -4193,10 +3943,10 @@
         <v>22</v>
       </c>
       <c r="C339">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -4204,10 +3954,10 @@
         <v>23</v>
       </c>
       <c r="C340">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -4215,10 +3965,10 @@
         <v>24</v>
       </c>
       <c r="C341">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -4226,10 +3976,10 @@
         <v>25</v>
       </c>
       <c r="C342">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -4240,7 +3990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -4251,7 +4001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -4262,18 +4012,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>16</v>
       </c>
       <c r="B346" t="s">
         <v>16</v>
       </c>
-      <c r="C346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>16</v>
       </c>
@@ -4284,18 +4031,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>16</v>
       </c>
       <c r="B348" t="s">
         <v>18</v>
       </c>
-      <c r="C348">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -4303,32 +4047,26 @@
         <v>19</v>
       </c>
       <c r="C349">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>16</v>
       </c>
       <c r="B350" t="s">
         <v>20</v>
       </c>
-      <c r="C350">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>16</v>
       </c>
       <c r="B351" t="s">
         <v>21</v>
       </c>
-      <c r="C351">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>16</v>
       </c>
@@ -4336,32 +4074,26 @@
         <v>22</v>
       </c>
       <c r="C352">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>16</v>
       </c>
       <c r="B353" t="s">
         <v>23</v>
       </c>
-      <c r="C353">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>16</v>
       </c>
       <c r="B354" t="s">
         <v>24</v>
       </c>
-      <c r="C354">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>16</v>
       </c>
@@ -4369,21 +4101,18 @@
         <v>25</v>
       </c>
       <c r="C355">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>16</v>
       </c>
       <c r="B356" t="s">
         <v>26</v>
       </c>
-      <c r="C356">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>16</v>
       </c>
@@ -4394,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>16</v>
       </c>
@@ -4405,7 +4134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>17</v>
       </c>
@@ -4416,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -4427,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -4435,10 +4164,10 @@
         <v>19</v>
       </c>
       <c r="C361">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -4449,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -4457,10 +4186,10 @@
         <v>21</v>
       </c>
       <c r="C363">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -4468,10 +4197,10 @@
         <v>22</v>
       </c>
       <c r="C364">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>17</v>
       </c>
@@ -4479,10 +4208,10 @@
         <v>23</v>
       </c>
       <c r="C365">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>17</v>
       </c>
@@ -4493,7 +4222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>17</v>
       </c>
@@ -4504,7 +4233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>17</v>
       </c>
@@ -4515,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>17</v>
       </c>
@@ -4526,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>17</v>
       </c>
@@ -4537,18 +4266,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>18</v>
       </c>
       <c r="B371" t="s">
         <v>18</v>
       </c>
-      <c r="C371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>18</v>
       </c>
@@ -4556,32 +4282,26 @@
         <v>19</v>
       </c>
       <c r="C372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>18</v>
       </c>
       <c r="B373" t="s">
         <v>20</v>
       </c>
-      <c r="C373">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>18</v>
       </c>
       <c r="B374" t="s">
         <v>21</v>
       </c>
-      <c r="C374">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -4592,29 +4312,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>18</v>
       </c>
       <c r="B376" t="s">
         <v>23</v>
       </c>
-      <c r="C376">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>18</v>
       </c>
       <c r="B377" t="s">
         <v>24</v>
       </c>
-      <c r="C377">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>18</v>
       </c>
@@ -4625,18 +4339,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>18</v>
       </c>
       <c r="B379" t="s">
         <v>26</v>
       </c>
-      <c r="C379">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>18</v>
       </c>
@@ -4647,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>18</v>
       </c>
@@ -4655,10 +4366,10 @@
         <v>28</v>
       </c>
       <c r="C381">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>19</v>
       </c>
@@ -4669,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>19</v>
       </c>
@@ -4677,10 +4388,10 @@
         <v>20</v>
       </c>
       <c r="C383">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>19</v>
       </c>
@@ -4691,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>19</v>
       </c>
@@ -4702,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>19</v>
       </c>
@@ -4713,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>19</v>
       </c>
@@ -4724,7 +4435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>19</v>
       </c>
@@ -4732,10 +4443,10 @@
         <v>25</v>
       </c>
       <c r="C388">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>19</v>
       </c>
@@ -4746,7 +4457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>19</v>
       </c>
@@ -4754,10 +4465,10 @@
         <v>27</v>
       </c>
       <c r="C390">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>19</v>
       </c>
@@ -4768,29 +4479,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>20</v>
       </c>
       <c r="B392" t="s">
         <v>20</v>
       </c>
-      <c r="C392">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>20</v>
       </c>
       <c r="B393" t="s">
         <v>21</v>
       </c>
-      <c r="C393">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>20</v>
       </c>
@@ -4798,32 +4503,26 @@
         <v>22</v>
       </c>
       <c r="C394">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>20</v>
       </c>
       <c r="B395" t="s">
         <v>23</v>
       </c>
-      <c r="C395">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>20</v>
       </c>
       <c r="B396" t="s">
         <v>24</v>
       </c>
-      <c r="C396">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>20</v>
       </c>
@@ -4834,18 +4533,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>20</v>
       </c>
       <c r="B398" t="s">
         <v>26</v>
       </c>
-      <c r="C398">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>20</v>
       </c>
@@ -4856,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>20</v>
       </c>
@@ -4867,18 +4563,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>21</v>
       </c>
       <c r="B401" t="s">
         <v>21</v>
       </c>
-      <c r="C401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>21</v>
       </c>
@@ -4889,29 +4582,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>21</v>
       </c>
       <c r="B403" t="s">
         <v>23</v>
       </c>
-      <c r="C403">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>21</v>
       </c>
       <c r="B404" t="s">
         <v>24</v>
       </c>
-      <c r="C404">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>21</v>
       </c>
@@ -4922,18 +4609,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>21</v>
       </c>
       <c r="B406" t="s">
         <v>26</v>
       </c>
-      <c r="C406">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>21</v>
       </c>
@@ -4944,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>21</v>
       </c>
@@ -4952,10 +4636,10 @@
         <v>28</v>
       </c>
       <c r="C408">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>22</v>
       </c>
@@ -4966,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>22</v>
       </c>
@@ -4977,7 +4661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -4988,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>22</v>
       </c>
@@ -4996,10 +4680,10 @@
         <v>25</v>
       </c>
       <c r="C412">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>22</v>
       </c>
@@ -5007,10 +4691,10 @@
         <v>26</v>
       </c>
       <c r="C413">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>22</v>
       </c>
@@ -5018,43 +4702,37 @@
         <v>27</v>
       </c>
       <c r="C414">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A415" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C415">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C415" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>23</v>
       </c>
       <c r="B416" t="s">
         <v>23</v>
       </c>
-      <c r="C416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>23</v>
       </c>
       <c r="B417" t="s">
         <v>24</v>
       </c>
-      <c r="C417">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>23</v>
       </c>
@@ -5065,18 +4743,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>23</v>
       </c>
       <c r="B419" t="s">
         <v>26</v>
       </c>
-      <c r="C419">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>23</v>
       </c>
@@ -5084,10 +4759,10 @@
         <v>27</v>
       </c>
       <c r="C420">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>23</v>
       </c>
@@ -5095,21 +4770,18 @@
         <v>28</v>
       </c>
       <c r="C421">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>24</v>
       </c>
       <c r="B422" t="s">
         <v>24</v>
       </c>
-      <c r="C422">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>24</v>
       </c>
@@ -5120,18 +4792,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>24</v>
       </c>
       <c r="B424" t="s">
         <v>26</v>
       </c>
-      <c r="C424">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>24</v>
       </c>
@@ -5139,10 +4808,10 @@
         <v>27</v>
       </c>
       <c r="C425">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>24</v>
       </c>
@@ -5150,10 +4819,10 @@
         <v>28</v>
       </c>
       <c r="C426">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>25</v>
       </c>
@@ -5164,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>25</v>
       </c>
@@ -5175,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>25</v>
       </c>
@@ -5186,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>25</v>
       </c>
@@ -5197,18 +4866,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>26</v>
       </c>
       <c r="B431" t="s">
         <v>26</v>
       </c>
-      <c r="C431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>26</v>
       </c>
@@ -5219,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>26</v>
       </c>
@@ -5230,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>27</v>
       </c>
@@ -5241,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>27</v>
       </c>
@@ -5252,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>28</v>
       </c>
